--- a/LF2 Arbeitsplaetze nach Kundenwuenschen austatten/quantitativer Angebotsvergleich/Quantitativer Angebotsvergleich_Muster.xlsx
+++ b/LF2 Arbeitsplaetze nach Kundenwuenschen austatten/quantitativer Angebotsvergleich/Quantitativer Angebotsvergleich_Muster.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Schule\BBS1\LF2 Arbeitsplaetze nach Kundenwuenschen austatten\quantitativer Angebotsvergleich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2199F658-B5E8-4308-B1A4-23802C24E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB83F83-F5DB-4CE0-84A1-EF1FBF977B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quantitativ_Muster" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Quantitativer Angebotsvergleich</t>
   </si>
@@ -131,12 +131,15 @@
   </si>
   <si>
     <t>20€/Stück</t>
+  </si>
+  <si>
+    <t>-100€ Multiverpackung rückgabe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -661,7 +664,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -699,107 +702,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,15 +799,35 @@
     <xf numFmtId="44" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1104,11 +1109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,102 +1143,102 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="36">
         <v>24540</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38">
         <v>25000</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="51">
+      <c r="E6" s="36"/>
+      <c r="F6" s="38">
         <v>24200</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="40">
         <v>0.02</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="58">
+      <c r="C7" s="41"/>
+      <c r="D7" s="42">
         <v>0</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="58">
+      <c r="E7" s="43"/>
+      <c r="F7" s="42">
         <v>0.05</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="23">
         <v>400</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="59">
+      <c r="E9" s="23">
         <v>700</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="25">
         <v>0.03</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="26">
         <v>726</v>
       </c>
     </row>
@@ -1241,27 +1246,27 @@
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="50">
         <v>5</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="52">
         <v>15</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -1284,50 +1289,50 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="62"/>
+      <c r="F16" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="65" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1350,23 +1355,23 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="19">
         <v>24540</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="19">
         <v>25000</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="19">
         <v>24200</v>
       </c>
     </row>
@@ -1374,19 +1379,19 @@
       <c r="A19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="20">
         <v>0.02</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="19">
         <f>SUM(C18*B19)</f>
         <v>490.8</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="56">
+      <c r="D19" s="22"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22">
         <v>0.05</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="19">
         <f>SUM(G18*F19)</f>
         <v>1210</v>
       </c>
@@ -1395,19 +1400,19 @@
       <c r="A20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="53">
-        <f t="shared" ref="C20:D20" si="0">SUM(C18-C19)</f>
+      <c r="B20" s="21"/>
+      <c r="C20" s="19">
+        <f t="shared" ref="C20" si="0">SUM(C18-C19)</f>
         <v>24049.200000000001</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53">
+      <c r="D20" s="22"/>
+      <c r="E20" s="19">
         <f>SUM(E18-E19)</f>
         <v>25000</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="53">
-        <f t="shared" ref="F20:G20" si="1">SUM(G18-G19)</f>
+      <c r="F20" s="22"/>
+      <c r="G20" s="19">
+        <f>SUM(G18-G19)</f>
         <v>22990</v>
       </c>
     </row>
@@ -1415,25 +1420,25 @@
       <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="20">
         <v>0.02</v>
       </c>
-      <c r="C21" s="53">
-        <f t="shared" ref="C21:D21" si="2">SUM(C20*B21)</f>
+      <c r="C21" s="19">
+        <f t="shared" ref="C21" si="1">SUM(C20*B21)</f>
         <v>480.98400000000004</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="22">
         <v>0.03</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="19">
         <f>SUM(E20*D21)</f>
         <v>750</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="22">
         <v>0.02</v>
       </c>
-      <c r="G21" s="53">
-        <f t="shared" ref="F21:G21" si="3">SUM(G20*F21)</f>
+      <c r="G21" s="19">
+        <f t="shared" ref="G21" si="2">SUM(G20*F21)</f>
         <v>459.8</v>
       </c>
     </row>
@@ -1441,19 +1446,19 @@
       <c r="A22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="53">
-        <f t="shared" ref="C22:D22" si="4">SUM(C20-C21)</f>
+      <c r="B22" s="21"/>
+      <c r="C22" s="19">
+        <f t="shared" ref="C22" si="3">SUM(C20-C21)</f>
         <v>23568.216</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53">
+      <c r="D22" s="22"/>
+      <c r="E22" s="19">
         <f>SUM(E20-E21)</f>
         <v>24250</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="53">
-        <f t="shared" ref="F22:G22" si="5">SUM(G20-G21)</f>
+      <c r="F22" s="22"/>
+      <c r="G22" s="19">
+        <f t="shared" ref="G22" si="4">SUM(G20-G21)</f>
         <v>22530.2</v>
       </c>
     </row>
@@ -1461,18 +1466,18 @@
       <c r="A23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53">
+      <c r="B23" s="20"/>
+      <c r="C23" s="19">
         <v>400</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53">
+      <c r="D23" s="22"/>
+      <c r="E23" s="19">
         <v>700</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="22">
         <v>0.03</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="19">
         <f>SUM(G18*F23)</f>
         <v>726</v>
       </c>
@@ -1481,19 +1486,19 @@
       <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="53">
+      <c r="B24" s="21"/>
+      <c r="C24" s="19">
         <f>SUM(C22+C23)</f>
         <v>23968.216</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53">
+      <c r="D24" s="22"/>
+      <c r="E24" s="19">
         <f>SUM(E22+E23)</f>
         <v>24950</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="53">
-        <f t="shared" ref="F24:G24" si="6">SUM(G22+G23)</f>
+      <c r="F24" s="22"/>
+      <c r="G24" s="19">
+        <f t="shared" ref="G24" si="5">SUM(G22+G23)</f>
         <v>23256.2</v>
       </c>
     </row>
@@ -1501,73 +1506,77 @@
       <c r="A25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="B25" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1575,6 +1584,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000085A7364F854642AFD65E8D8B23E074" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="32ea5cee67efa2f3798d86aa3448cae0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="10627edd4f09c1f414843cf0643fb7ba">
     <xsd:element name="properties">
@@ -1688,26 +1716,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F09B1F-212E-4D64-A085-A659B9A2ECBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8D9E34-68BA-4D1C-B5E0-288521564A1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1B44E2C-A238-4275-B528-A1C366DE1BA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F141DE76-06E4-4137-B758-12D6E860D30A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1721,29 +1755,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1B44E2C-A238-4275-B528-A1C366DE1BA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D8D9E34-68BA-4D1C-B5E0-288521564A1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F09B1F-212E-4D64-A085-A659B9A2ECBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>